--- a/webdata/Base_Finance_Values.xlsx
+++ b/webdata/Base_Finance_Values.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="300226 财务数据" sheetId="2" r:id="rId2"/>
-    <sheet name="600867" sheetId="3" r:id="rId3"/>
-    <sheet name="sz002310" sheetId="4" r:id="rId4"/>
+    <sheet name="600221" sheetId="5" r:id="rId3"/>
+    <sheet name="600867" sheetId="3" r:id="rId4"/>
+    <sheet name="sz002310" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
     <t>n+1d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,6 +751,10 @@
   </si>
   <si>
     <t>市净PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股净资产 ， 雪球信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,9 +964,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1300,7 +1302,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -1320,7 +1322,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1331,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1343,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1352,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1372,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -1384,25 +1386,25 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1415,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
@@ -1427,19 +1429,19 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -1832,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1841,9 +1843,10 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
@@ -1858,7 +1861,7 @@
         <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
         <v>108</v>
@@ -1905,58 +1908,58 @@
         <v>42825</v>
       </c>
       <c r="B2" s="18">
-        <v>3.6900000000000002E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="C2" s="18">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
       <c r="D2" s="11">
-        <v>587.82000000000005</v>
+        <v>83514</v>
       </c>
       <c r="E2" s="11">
         <f>D2*10000</f>
-        <v>5878200.0000000009</v>
+        <v>835140000</v>
       </c>
       <c r="F2" s="11">
         <v>5878200.0000000009</v>
       </c>
-      <c r="G2" s="10">
-        <v>14770.93</v>
+      <c r="G2" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H2">
         <f>G2*10000</f>
-        <v>147709300</v>
+        <v>11812064200</v>
       </c>
       <c r="I2" s="15">
         <f>F2/H2</f>
-        <v>3.9795733917904974E-2</v>
+        <v>4.9764375645706374E-4</v>
       </c>
       <c r="J2" s="21">
         <f>I2+I3+I4+I5</f>
-        <v>0.16208377575978677</v>
+        <v>0.14418125157159237</v>
       </c>
       <c r="K2" s="16">
         <f>I2*4</f>
-        <v>0.1591829356716199</v>
+        <v>1.990575025828255E-3</v>
       </c>
       <c r="L2">
         <v>34.770000000000003</v>
       </c>
       <c r="M2">
         <f>L2/B2</f>
-        <v>942.27642276422762</v>
+        <v>699.59758551307857</v>
       </c>
       <c r="N2" s="16">
         <f>L2/J2</f>
-        <v>214.5186946504148</v>
+        <v>241.1547938515096</v>
       </c>
       <c r="O2" s="16">
         <f>L2/K2</f>
-        <v>218.42793546493823</v>
+        <v>17467.314493977745</v>
       </c>
       <c r="P2">
         <f>L2/C2</f>
-        <v>10.899686520376177</v>
+        <v>11.288961038961039</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" thickBot="1">
@@ -1964,36 +1967,36 @@
         <v>42735</v>
       </c>
       <c r="B3" s="20">
-        <v>0.14019999999999999</v>
+        <v>21</v>
       </c>
       <c r="C3" s="20">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="D3" s="12">
-        <v>2210.4899999999998</v>
+        <v>313826</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E33" si="0">D3*10000</f>
-        <v>22104899.999999996</v>
+        <v>3138260000</v>
       </c>
       <c r="F3" s="12">
         <f>E3-E4</f>
-        <v>6087799.9999999963</v>
-      </c>
-      <c r="G3" s="10">
-        <v>14779.45</v>
+        <v>-265030000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H14" si="1">G3*10000</f>
-        <v>147794500</v>
+        <v>11812064200</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" ref="I3:I14" si="2">F3/H3</f>
-        <v>4.1190978013390188E-2</v>
+        <v>-2.2437229895855122E-2</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
-        <v>0.15940142112581468</v>
+        <v>0.26568260609352257</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" thickBot="1">
@@ -2001,36 +2004,36 @@
         <v>42643</v>
       </c>
       <c r="B4" s="20">
-        <v>0.1019</v>
+        <v>0.27</v>
       </c>
       <c r="C4" s="20">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="D4" s="12">
-        <v>1601.71</v>
+        <v>340329</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>16017100</v>
+        <v>3403290000</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F9" si="4">E4-E5</f>
-        <v>2429500</v>
-      </c>
-      <c r="G4" s="10">
-        <v>14779.45</v>
+        <v>1729950000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>147794500</v>
+        <v>11812064200</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="2"/>
-        <v>1.643836543308445E-2</v>
+        <v>0.14645619687708775</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="3"/>
-        <v>-0.52662217372943121</v>
+        <v>0.33154069717975293</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" thickBot="1">
@@ -2038,36 +2041,36 @@
         <v>42551</v>
       </c>
       <c r="B5" s="20">
-        <v>8.7099999999999997E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C5" s="20">
-        <v>2.4700000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="D5" s="12">
-        <v>1358.76</v>
+        <v>167334</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>13587600</v>
+        <v>1673340000</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="4"/>
-        <v>9556200</v>
-      </c>
-      <c r="G5" s="10">
-        <v>14779.45</v>
+        <v>232280000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>147794500</v>
+        <v>11812064200</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="2"/>
-        <v>6.4658698395407138E-2</v>
+        <v>1.966464083390268E-2</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="3"/>
-        <v>-1.2730562460414165</v>
+        <v>0.26020515533601657</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" thickBot="1">
@@ -2075,36 +2078,36 @@
         <v>42460</v>
       </c>
       <c r="B6" s="8">
-        <v>2.58E-2</v>
+        <v>0.1183</v>
       </c>
       <c r="C6" s="8">
-        <v>2.3199999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="D6" s="12">
-        <v>403.14</v>
+        <v>144106</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>4031400</v>
+        <v>1441060000</v>
       </c>
       <c r="F6" s="11">
         <f>E6</f>
-        <v>4031400</v>
-      </c>
-      <c r="G6" s="10">
-        <v>10862.39</v>
+        <v>1441060000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>108623900</v>
+        <v>11812064200</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" si="2"/>
-        <v>3.7113379283932907E-2</v>
+        <v>0.12199899827838728</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="3"/>
-        <v>-2.2687443027803393</v>
+        <v>0.2982316164519323</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" thickBot="1">
@@ -2112,36 +2115,36 @@
         <v>42369</v>
       </c>
       <c r="B7" s="8">
-        <v>-1.61</v>
+        <v>0.246</v>
       </c>
       <c r="C7" s="8">
-        <v>0.5</v>
+        <v>2.54</v>
       </c>
       <c r="D7" s="12">
-        <v>-25038.5</v>
+        <v>300269</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>-250385000</v>
+        <v>3002690000</v>
       </c>
       <c r="F7" s="12">
         <f>E7-E8</f>
-        <v>-66389000</v>
-      </c>
-      <c r="G7" s="10">
-        <v>10295.540000000001</v>
+        <v>512890000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>102955400.00000001</v>
+        <v>11812064200</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="2"/>
-        <v>-0.64483261684185567</v>
+        <v>4.3420861190375179E-2</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="3"/>
-        <v>-2.4461963668829005</v>
+        <v>0.25420535726515947</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" thickBot="1">
@@ -2149,36 +2152,36 @@
         <v>42277</v>
       </c>
       <c r="B8" s="8">
-        <v>-1.1795</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C8" s="8">
-        <v>0.92</v>
+        <v>2.46</v>
       </c>
       <c r="D8" s="12">
-        <v>-18399.599999999999</v>
+        <v>248980</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>-183996000</v>
+        <v>2489800000</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="4"/>
-        <v>-75157000</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10295.540000000001</v>
+        <v>887330000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>102955400.00000001</v>
+        <v>11812064200</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="2"/>
-        <v>-0.72999570687890081</v>
+        <v>7.5120655033351413E-2</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="3"/>
-        <v>-1.6714741051237689</v>
+        <v>0.43015089606438139</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" thickBot="1">
@@ -2186,36 +2189,36 @@
         <v>42185</v>
       </c>
       <c r="B9" s="23">
-        <v>-0.69769999999999999</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="C9" s="23">
-        <v>1.4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D9" s="24">
-        <v>-10883.9</v>
+        <v>160247</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>-108839000</v>
+        <v>1602470000</v>
       </c>
       <c r="F9" s="24">
         <f t="shared" si="4"/>
-        <v>-95854500</v>
-      </c>
-      <c r="G9" s="26">
-        <v>10295.540000000001</v>
-      </c>
-      <c r="H9" s="27">
+        <v>681451000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>102955400.00000001</v>
-      </c>
-      <c r="I9" s="28">
+        <v>11812064200</v>
+      </c>
+      <c r="I9" s="27">
         <f t="shared" si="2"/>
-        <v>-0.93102935834351563</v>
-      </c>
-      <c r="J9" s="28">
+        <v>5.7691101949818392E-2</v>
+      </c>
+      <c r="J9" s="27">
         <f t="shared" si="3"/>
-        <v>-0.87851735609341786</v>
+        <v>0.35503024103102998</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" thickBot="1">
@@ -2223,30 +2226,32 @@
         <v>42094</v>
       </c>
       <c r="B10" s="8">
-        <v>-8.3199999999999996E-2</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.44</v>
+      </c>
       <c r="D10" s="12">
-        <v>-1298.45</v>
+        <v>92101.9</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>-12984500</v>
+        <v>921019000</v>
       </c>
       <c r="F10" s="11">
         <f>E10</f>
-        <v>-12984500</v>
-      </c>
-      <c r="G10" s="10">
-        <v>9252.26</v>
+        <v>921019000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1181206.42</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>92522600</v>
+        <v>11812064200</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="2"/>
-        <v>-0.1403386848186281</v>
+        <v>7.7972739091614493E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" thickBot="1">
@@ -2254,458 +2259,214 @@
         <v>42004</v>
       </c>
       <c r="B11" s="8">
-        <v>0.12039999999999999</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.35</v>
+      </c>
       <c r="D11" s="12">
-        <v>1877.57</v>
+        <v>259117</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>18775700</v>
+        <v>2591170000</v>
       </c>
       <c r="F11" s="12">
         <f>E11-E12</f>
-        <v>12438700</v>
+        <v>2591170000</v>
       </c>
       <c r="G11" s="14">
-        <v>9576.36</v>
+        <v>1181206.42</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>95763600</v>
+        <v>11812064200</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="2"/>
-        <v>0.12988964491727545</v>
+        <v>0.21936639998959709</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A12" s="6">
-        <v>41912</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4.0599999999999997E-2</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="12">
-        <v>633.70000000000005</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>6337000</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" ref="F12:F13" si="5">E12-E13</f>
-        <v>5535900</v>
-      </c>
-      <c r="G12" s="10">
-        <v>8792.58</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>87925800</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="2"/>
-        <v>6.296104215145043E-2</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A13" s="6">
-        <v>41820</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5.1000000000000004E-3</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="12">
-        <v>80.11</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>801100</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="5"/>
-        <v>733600</v>
-      </c>
-      <c r="G13" s="14">
-        <v>8689.3700000000008</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>86893700.000000015</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="2"/>
-        <v>8.4424992836074405E-3</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A14" s="6">
-        <v>41729</v>
-      </c>
-      <c r="B14" s="8">
-        <v>5.9999999999999995E-4</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="12">
-        <v>6.75</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>67500</v>
-      </c>
-      <c r="F14" s="11">
-        <f>E14</f>
-        <v>67500</v>
-      </c>
-      <c r="G14" s="10">
-        <v>4384.92</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>43849200</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5393667387318354E-3</v>
-      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A15" s="6">
-        <v>41639</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.1799</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="12">
-        <v>2159.08</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>21590800</v>
-      </c>
-      <c r="F15" s="12">
-        <f>E15-E16</f>
-        <v>4767100</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A16" s="6">
-        <v>41547</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.14019999999999999</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="12">
-        <v>1682.37</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
-        <v>16823700</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" ref="F16:F17" si="6">E16-E17</f>
-        <v>5746500</v>
-      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A17" s="6">
-        <v>41455</v>
-      </c>
-      <c r="B17" s="8">
-        <v>9.2299999999999993E-2</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="12">
-        <v>1107.72</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
-        <v>11077200</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="6"/>
-        <v>7952500</v>
-      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A18" s="6">
-        <v>41364</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.04</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="12">
-        <v>312.47000000000003</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>3124700.0000000005</v>
-      </c>
-      <c r="F18" s="11">
-        <f>E18</f>
-        <v>3124700.0000000005</v>
-      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A19" s="6">
-        <v>41274</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.44</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="12">
-        <v>3526.11</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
-        <v>35261100</v>
-      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A20" s="6">
-        <v>41182</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="12">
-        <v>2234.29</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>22342900</v>
-      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A21" s="6">
-        <v>41090</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.23</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="12">
-        <v>1803.65</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
-        <v>18036500</v>
-      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A22" s="6">
-        <v>40999</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.2</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="12">
-        <v>784.43</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="0"/>
-        <v>7844299.9999999991</v>
-      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A23" s="6">
-        <v>40908</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1.08</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="12">
-        <v>3864.05</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
-        <v>38640500</v>
-      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A24" s="6">
-        <v>40816</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.63980000000000004</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="12">
-        <v>2132.5700000000002</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="0"/>
-        <v>21325700</v>
-      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A25" s="6">
-        <v>40724</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.46779999999999999</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="12">
-        <v>1481.3</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" si="0"/>
-        <v>14813000</v>
-      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A26" s="6">
-        <v>40633</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.24</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="12">
-        <v>717.66</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" si="0"/>
-        <v>7176600</v>
-      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A27" s="6">
-        <v>40543</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.9</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="12">
-        <v>2697.99</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="0"/>
-        <v>26979899.999999996</v>
-      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A28" s="6">
-        <v>40451</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.51</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="12">
-        <v>1564.79</v>
-      </c>
-      <c r="E28" s="11">
-        <f t="shared" si="0"/>
-        <v>15647900</v>
-      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A29" s="6">
-        <v>40359</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.38</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="12">
-        <v>1149.76</v>
-      </c>
-      <c r="E29" s="11">
-        <f t="shared" si="0"/>
-        <v>11497600</v>
-      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A30" s="6">
-        <v>40268</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.23</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="12">
-        <v>716.18</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" si="0"/>
-        <v>7161799.9999999991</v>
-      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A31" s="6">
-        <v>40178</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0.66</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="12">
-        <v>1966.24</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" si="0"/>
-        <v>19662400</v>
-      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A32" s="6">
-        <v>39813</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.74</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="12">
-        <v>1475.47</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="0"/>
-        <v>14754700</v>
-      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A33" s="7">
-        <v>39447</v>
-      </c>
-      <c r="B33" s="9">
-        <v>0.95</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="13">
-        <v>1422.81</v>
-      </c>
-      <c r="E33" s="11">
-        <f t="shared" si="0"/>
-        <v>14228100</v>
-      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="13"/>
     </row>
   </sheetData>
@@ -2716,6 +2477,470 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A2" s="17">
+        <v>42825</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>3.08</v>
+      </c>
+      <c r="D2" s="11">
+        <v>83514</v>
+      </c>
+      <c r="E2" s="11">
+        <f>D2*10000</f>
+        <v>835140000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5878200.0000000009</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H2">
+        <f>G2*10000</f>
+        <v>11812064200</v>
+      </c>
+      <c r="I2" s="15">
+        <f>F2/H2</f>
+        <v>4.9764375645706374E-4</v>
+      </c>
+      <c r="J2" s="21">
+        <f>I2+I3+I4+I5</f>
+        <v>0.14418125157159237</v>
+      </c>
+      <c r="K2" s="16">
+        <f>I2*4</f>
+        <v>1.990575025828255E-3</v>
+      </c>
+      <c r="L2">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="M2">
+        <f>L2/B2</f>
+        <v>699.59758551307857</v>
+      </c>
+      <c r="N2" s="16">
+        <f>L2/J2</f>
+        <v>241.1547938515096</v>
+      </c>
+      <c r="O2" s="16">
+        <f>L2/K2</f>
+        <v>17467.314493977745</v>
+      </c>
+      <c r="P2">
+        <f>L2/C2</f>
+        <v>11.288961038961039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A3" s="19">
+        <v>42735</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3.03</v>
+      </c>
+      <c r="D3" s="12">
+        <v>313826</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E11" si="0">D3*10000</f>
+        <v>3138260000</v>
+      </c>
+      <c r="F3" s="12">
+        <f>E3-E4</f>
+        <v>-265030000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3*10000</f>
+        <v>11812064200</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I11" si="2">F3/H3</f>
+        <v>-2.2437229895855122E-2</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
+        <v>0.26568260609352257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A4" s="19">
+        <v>42643</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.27</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3.03</v>
+      </c>
+      <c r="D4" s="12">
+        <v>340329</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>3403290000</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F9" si="4">E4-E5</f>
+        <v>1729950000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14645619687708775</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="3"/>
+        <v>0.33154069717975293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A5" s="19">
+        <v>42551</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2.68</v>
+      </c>
+      <c r="D5" s="12">
+        <v>167334</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1673340000</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="4"/>
+        <v>232280000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="2"/>
+        <v>1.966464083390268E-2</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.26020515533601657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A6" s="6">
+        <v>42460</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.1183</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="D6" s="12">
+        <v>144106</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1441060000</v>
+      </c>
+      <c r="F6" s="11">
+        <f>E6</f>
+        <v>1441060000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12199899827838728</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
+        <v>0.2982316164519323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A7" s="6">
+        <v>42369</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.54</v>
+      </c>
+      <c r="D7" s="12">
+        <v>300269</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>3002690000</v>
+      </c>
+      <c r="F7" s="12">
+        <f>E7-E8</f>
+        <v>512890000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="2"/>
+        <v>4.3420861190375179E-2</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="3"/>
+        <v>0.25420535726515947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A8" s="6">
+        <v>42277</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.46</v>
+      </c>
+      <c r="D8" s="12">
+        <v>248980</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>2489800000</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="4"/>
+        <v>887330000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="2"/>
+        <v>7.5120655033351413E-2</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="3"/>
+        <v>0.43015089606438139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A9" s="22">
+        <v>42185</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D9" s="24">
+        <v>160247</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>1602470000</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="4"/>
+        <v>681451000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="2"/>
+        <v>5.7691101949818392E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.35503024103102998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A10" s="6">
+        <v>42094</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.44</v>
+      </c>
+      <c r="D10" s="12">
+        <v>92101.9</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>921019000</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10</f>
+        <v>921019000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="2"/>
+        <v>7.7972739091614493E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6">
+        <v>42004</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="D11" s="12">
+        <v>259117</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>2591170000</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-E12</f>
+        <v>2591170000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.21936639998959709</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22">
+        <v>11812064200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -3094,15 +3319,15 @@
       <c r="G9" s="14">
         <v>112706.06</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>1127060600</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f t="shared" si="2"/>
         <v>0.12468735634091016</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <f t="shared" si="3"/>
         <v>9.819620212031395E-2</v>
       </c>
@@ -3131,11 +3356,11 @@
       <c r="G10" s="10">
         <v>102460.05</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>1024600500</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="2"/>
         <v>-0.15401908480427248</v>
       </c>
@@ -3164,11 +3389,11 @@
       <c r="G11" s="10">
         <v>102460.05</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f t="shared" si="1"/>
         <v>1024600500</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="2"/>
         <v>5.900076059888705E-2</v>
       </c>
@@ -3197,11 +3422,11 @@
       <c r="G12" s="10">
         <v>102460.05</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>1024600500</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="2"/>
         <v>6.8527169984789221E-2</v>
       </c>
@@ -3230,11 +3455,11 @@
       <c r="G13" s="14">
         <v>102460.05</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <f t="shared" si="1"/>
         <v>1024600500</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="2"/>
         <v>0.14553548768520022</v>
       </c>
@@ -3409,12 +3634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3787,15 +4012,15 @@
       <c r="G9" s="14">
         <v>55499.11</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>554991100</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f t="shared" si="2"/>
         <v>0.42633674666134286</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <f t="shared" si="3"/>
         <v>-0.34058732161319005</v>
       </c>
@@ -3824,11 +4049,11 @@
       <c r="G10" s="14">
         <v>55350.09</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>553500900</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="2"/>
         <v>-1.3136674213176527</v>
       </c>
@@ -3857,11 +4082,11 @@
       <c r="G11" s="14">
         <v>55350.09</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f t="shared" si="1"/>
         <v>553500900</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="2"/>
         <v>0.42491529824070745</v>
       </c>
@@ -3890,11 +4115,11 @@
       <c r="G12" s="14">
         <v>45269.54</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>452695400</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="2"/>
         <v>0.12182805480241239</v>
       </c>
@@ -3923,11 +4148,11 @@
       <c r="G13" s="14">
         <v>45269.54</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <f t="shared" si="1"/>
         <v>452695400</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="2"/>
         <v>0.78957727425549273</v>
       </c>

--- a/webdata/Base_Finance_Values.xlsx
+++ b/webdata/Base_Finance_Values.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="300226 财务数据" sheetId="2" r:id="rId2"/>
-    <sheet name="600221" sheetId="5" r:id="rId3"/>
-    <sheet name="600867" sheetId="3" r:id="rId4"/>
-    <sheet name="sz002310" sheetId="4" r:id="rId5"/>
+    <sheet name="财务数据" sheetId="2" r:id="rId2"/>
+    <sheet name="300146" sheetId="6" r:id="rId3"/>
+    <sheet name="600221" sheetId="5" r:id="rId4"/>
+    <sheet name="600867" sheetId="3" r:id="rId5"/>
+    <sheet name="sz002310" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>n+1d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1834,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1844,8 +1845,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="5" max="6" width="22.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -1908,58 +1908,59 @@
         <v>42825</v>
       </c>
       <c r="B2" s="18">
-        <v>4.9700000000000001E-2</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="C2" s="18">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="D2" s="11">
-        <v>83514</v>
+        <v>28319.8</v>
       </c>
       <c r="E2" s="11">
         <f>D2*10000</f>
-        <v>835140000</v>
-      </c>
-      <c r="F2" s="11">
-        <v>5878200.0000000009</v>
+        <v>283198000</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2-E3</f>
+        <v>-252014000</v>
       </c>
       <c r="G2" s="14">
-        <v>1181206.42</v>
+        <v>87142.5</v>
       </c>
       <c r="H2">
         <f>G2*10000</f>
-        <v>11812064200</v>
+        <v>871425000</v>
       </c>
       <c r="I2" s="15">
         <f>F2/H2</f>
-        <v>4.9764375645706374E-4</v>
+        <v>-0.28919757867860113</v>
       </c>
       <c r="J2" s="21">
         <f>I2+I3+I4+I5</f>
-        <v>0.14418125157159237</v>
+        <v>7.16362846066044E-2</v>
       </c>
       <c r="K2" s="16">
         <f>I2*4</f>
-        <v>1.990575025828255E-3</v>
+        <v>-1.1567903147144045</v>
       </c>
       <c r="L2">
         <v>34.770000000000003</v>
       </c>
       <c r="M2">
         <f>L2/B2</f>
-        <v>699.59758551307857</v>
+        <v>178.85802469135805</v>
       </c>
       <c r="N2" s="16">
         <f>L2/J2</f>
-        <v>241.1547938515096</v>
+        <v>485.368555766702</v>
       </c>
       <c r="O2" s="16">
         <f>L2/K2</f>
-        <v>17467.314493977745</v>
+        <v>-30.057305596117679</v>
       </c>
       <c r="P2">
         <f>L2/C2</f>
-        <v>11.288961038961039</v>
+        <v>11.180064308681674</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" thickBot="1">
@@ -1967,36 +1968,36 @@
         <v>42735</v>
       </c>
       <c r="B3" s="20">
-        <v>21</v>
+        <v>0.37</v>
       </c>
       <c r="C3" s="20">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="D3" s="12">
-        <v>313826</v>
+        <v>53521.2</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E33" si="0">D3*10000</f>
-        <v>3138260000</v>
+        <f t="shared" ref="E3:E11" si="0">D3*10000</f>
+        <v>535212000</v>
       </c>
       <c r="F3" s="12">
-        <f>E3-E4</f>
-        <v>-265030000</v>
+        <f t="shared" ref="F3:F11" si="1">E3-E4</f>
+        <v>-32534000</v>
       </c>
       <c r="G3" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">G3*10000</f>
-        <v>11812064200</v>
+        <f t="shared" ref="H3:H11" si="2">G3*10000</f>
+        <v>860141000</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I14" si="2">F3/H3</f>
-        <v>-2.2437229895855122E-2</v>
+        <f t="shared" ref="I3:I11" si="3">F3/H3</f>
+        <v>-3.7824031176283891E-2</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
-        <v>0.26568260609352257</v>
+        <f t="shared" ref="J3:J9" si="4">I3+I4+I5+I6</f>
+        <v>-0.11659018695771972</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" thickBot="1">
@@ -2004,36 +2005,36 @@
         <v>42643</v>
       </c>
       <c r="B4" s="20">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="C4" s="20">
-        <v>3.03</v>
+        <v>3.23</v>
       </c>
       <c r="D4" s="12">
-        <v>340329</v>
+        <v>56774.6</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>3403290000</v>
+        <v>567746000</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F9" si="4">E4-E5</f>
-        <v>1729950000</v>
+        <f t="shared" si="1"/>
+        <v>208966000</v>
       </c>
       <c r="G4" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>860141000</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" si="2"/>
-        <v>0.14645619687708775</v>
+        <f t="shared" si="3"/>
+        <v>0.24294388943208148</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="3"/>
-        <v>0.33154069717975293</v>
+        <f t="shared" si="4"/>
+        <v>6.2499421277245976E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" thickBot="1">
@@ -2041,36 +2042,36 @@
         <v>42551</v>
       </c>
       <c r="B5" s="20">
-        <v>0.13700000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="20">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="D5" s="12">
-        <v>167334</v>
+        <v>35878</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>1673340000</v>
+        <v>358780000</v>
       </c>
       <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>133936000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>86014.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>860141000</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="3"/>
+        <v>0.15571400502940796</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="4"/>
-        <v>232280000</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" si="2"/>
-        <v>1.966464083390268E-2</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" si="3"/>
-        <v>0.26020515533601657</v>
+        <v>0.32051019176771711</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" thickBot="1">
@@ -2078,36 +2079,36 @@
         <v>42460</v>
       </c>
       <c r="B6" s="8">
-        <v>0.1183</v>
+        <v>0.30880000000000002</v>
       </c>
       <c r="C6" s="8">
-        <v>2.65</v>
+        <v>5.97</v>
       </c>
       <c r="D6" s="12">
-        <v>144106</v>
+        <v>22484.400000000001</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>1441060000</v>
-      </c>
-      <c r="F6" s="11">
-        <f>E6</f>
-        <v>1441060000</v>
+        <v>224844000</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>-410652000</v>
       </c>
       <c r="G6" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>860141000</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="2"/>
-        <v>0.12199899827838728</v>
+        <f t="shared" si="3"/>
+        <v>-0.47742405024292528</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2982316164519323</v>
+        <f t="shared" si="4"/>
+        <v>0.79205941716217165</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" thickBot="1">
@@ -2115,36 +2116,36 @@
         <v>42369</v>
       </c>
       <c r="B7" s="8">
-        <v>0.246</v>
+        <v>0.89</v>
       </c>
       <c r="C7" s="8">
-        <v>2.54</v>
+        <v>3.16</v>
       </c>
       <c r="D7" s="12">
-        <v>300269</v>
+        <v>63549.599999999999</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>3002690000</v>
+        <v>635496000</v>
       </c>
       <c r="F7" s="12">
-        <f>E7-E8</f>
-        <v>512890000</v>
+        <f t="shared" si="1"/>
+        <v>50765000</v>
       </c>
       <c r="G7" s="14">
-        <v>1181206.42</v>
+        <v>35935.86</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>359358600</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="2"/>
-        <v>4.3420861190375179E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.14126557705868178</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" si="3"/>
-        <v>0.25420535726515947</v>
+        <f t="shared" si="4"/>
+        <v>0.38830871393588462</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" thickBot="1">
@@ -2152,36 +2153,36 @@
         <v>42277</v>
       </c>
       <c r="B8" s="8">
-        <v>0.20399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="C8" s="8">
-        <v>2.46</v>
+        <v>6.2</v>
       </c>
       <c r="D8" s="12">
-        <v>248980</v>
+        <v>58473.1</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>2489800000</v>
+        <v>584731000</v>
       </c>
       <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>167814000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>33498.839999999997</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>334988399.99999994</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.50095465992255261</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="4"/>
-        <v>887330000</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="2"/>
-        <v>7.5120655033351413E-2</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="3"/>
-        <v>0.43015089606438139</v>
+        <v>1.7371207989796087</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" thickBot="1">
@@ -2189,36 +2190,36 @@
         <v>42185</v>
       </c>
       <c r="B9" s="23">
-        <v>0.13150000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="C9" s="23">
-        <v>2.4300000000000002</v>
+        <v>5.95</v>
       </c>
       <c r="D9" s="24">
-        <v>160247</v>
+        <v>41691.699999999997</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>1602470000</v>
-      </c>
-      <c r="F9" s="24">
+        <v>416917000</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>211659000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>33743.25</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="2"/>
+        <v>337432500</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.62726323042386256</v>
+      </c>
+      <c r="J9" s="27">
         <f t="shared" si="4"/>
-        <v>681451000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="2"/>
-        <v>5.7691101949818392E-2</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="3"/>
-        <v>0.35503024103102998</v>
+        <v>1.2361661390570564</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" thickBot="1">
@@ -2226,32 +2227,32 @@
         <v>42094</v>
       </c>
       <c r="B10" s="8">
-        <v>7.5600000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="8">
-        <v>2.44</v>
+        <v>5.66</v>
       </c>
       <c r="D10" s="12">
-        <v>92101.9</v>
+        <v>20525.8</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>921019000</v>
-      </c>
-      <c r="F10" s="11">
-        <f>E10</f>
-        <v>921019000</v>
+        <v>205258000</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>-297337000</v>
       </c>
       <c r="G10" s="14">
-        <v>1181206.42</v>
+        <v>33743.25</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>337432500</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="2"/>
-        <v>7.7972739091614493E-2</v>
+        <f t="shared" si="3"/>
+        <v>-0.88117475346921237</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" thickBot="1">
@@ -2259,32 +2260,32 @@
         <v>42004</v>
       </c>
       <c r="B11" s="8">
-        <v>0.21299999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="C11" s="8">
-        <v>2.35</v>
+        <v>3.72</v>
       </c>
       <c r="D11" s="12">
-        <v>259117</v>
+        <v>50259.5</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>2591170000</v>
+        <v>502595000</v>
       </c>
       <c r="F11" s="12">
-        <f>E11-E12</f>
-        <v>2591170000</v>
+        <f t="shared" si="1"/>
+        <v>502595000</v>
       </c>
       <c r="G11" s="14">
-        <v>1181206.42</v>
+        <v>33729.449999999997</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>337294500</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="2"/>
-        <v>0.21936639998959709</v>
+        <f t="shared" si="3"/>
+        <v>1.4900776621024061</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" thickBot="1">
@@ -2478,24 +2479,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="7" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" thickBot="1">
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2526,412 +2528,367 @@
       <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.25" thickBot="1">
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickBot="1">
       <c r="A2" s="17">
         <v>42825</v>
       </c>
       <c r="B2" s="18">
-        <v>4.9700000000000001E-2</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="C2" s="18">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="D2" s="11">
-        <v>83514</v>
+        <v>28319.8</v>
       </c>
       <c r="E2" s="11">
         <f>D2*10000</f>
-        <v>835140000</v>
-      </c>
-      <c r="F2" s="11">
-        <v>5878200.0000000009</v>
+        <v>283198000</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2-E3</f>
+        <v>-252014000</v>
       </c>
       <c r="G2" s="14">
-        <v>1181206.42</v>
+        <v>87142.5</v>
       </c>
       <c r="H2">
         <f>G2*10000</f>
-        <v>11812064200</v>
+        <v>871425000</v>
       </c>
       <c r="I2" s="15">
         <f>F2/H2</f>
-        <v>4.9764375645706374E-4</v>
+        <v>-0.28919757867860113</v>
       </c>
       <c r="J2" s="21">
         <f>I2+I3+I4+I5</f>
-        <v>0.14418125157159237</v>
-      </c>
-      <c r="K2" s="16">
-        <f>I2*4</f>
-        <v>1.990575025828255E-3</v>
-      </c>
-      <c r="L2">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="M2">
-        <f>L2/B2</f>
-        <v>699.59758551307857</v>
-      </c>
-      <c r="N2" s="16">
-        <f>L2/J2</f>
-        <v>241.1547938515096</v>
-      </c>
-      <c r="O2" s="16">
-        <f>L2/K2</f>
-        <v>17467.314493977745</v>
-      </c>
-      <c r="P2">
-        <f>L2/C2</f>
-        <v>11.288961038961039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" thickBot="1">
+        <v>7.16362846066044E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" thickBot="1">
       <c r="A3" s="19">
         <v>42735</v>
       </c>
       <c r="B3" s="20">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="C3" s="20">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="D3" s="12">
-        <v>313826</v>
+        <v>53521.2</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E11" si="0">D3*10000</f>
-        <v>3138260000</v>
+        <v>535212000</v>
       </c>
       <c r="F3" s="12">
-        <f>E3-E4</f>
-        <v>-265030000</v>
+        <f t="shared" ref="F3:F11" si="1">E3-E4</f>
+        <v>-32534000</v>
       </c>
       <c r="G3" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">G3*10000</f>
-        <v>11812064200</v>
+        <f t="shared" ref="H3:H11" si="2">G3*10000</f>
+        <v>860141000</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I11" si="2">F3/H3</f>
-        <v>-2.2437229895855122E-2</v>
+        <f t="shared" ref="I3:I11" si="3">F3/H3</f>
+        <v>-3.7824031176283891E-2</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
-        <v>0.26568260609352257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" thickBot="1">
+        <f t="shared" ref="J3:J9" si="4">I3+I4+I5+I6</f>
+        <v>-0.11659018695771972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" thickBot="1">
       <c r="A4" s="19">
         <v>42643</v>
       </c>
       <c r="B4" s="20">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="C4" s="20">
-        <v>3.03</v>
+        <v>3.23</v>
       </c>
       <c r="D4" s="12">
-        <v>340329</v>
+        <v>56774.6</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>3403290000</v>
+        <v>567746000</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F9" si="4">E4-E5</f>
-        <v>1729950000</v>
+        <f t="shared" si="1"/>
+        <v>208966000</v>
       </c>
       <c r="G4" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>860141000</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" si="2"/>
-        <v>0.14645619687708775</v>
+        <f t="shared" si="3"/>
+        <v>0.24294388943208148</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="3"/>
-        <v>0.33154069717975293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" thickBot="1">
+        <f t="shared" si="4"/>
+        <v>6.2499421277245976E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="19">
         <v>42551</v>
       </c>
       <c r="B5" s="20">
-        <v>0.13700000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="20">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="D5" s="12">
-        <v>167334</v>
+        <v>35878</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>1673340000</v>
+        <v>358780000</v>
       </c>
       <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>133936000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>86014.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>860141000</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="3"/>
+        <v>0.15571400502940796</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="4"/>
-        <v>232280000</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" si="2"/>
-        <v>1.966464083390268E-2</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" si="3"/>
-        <v>0.26020515533601657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" thickBot="1">
+        <v>0.32051019176771711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="6">
         <v>42460</v>
       </c>
       <c r="B6" s="8">
-        <v>0.1183</v>
+        <v>0.30880000000000002</v>
       </c>
       <c r="C6" s="8">
-        <v>2.65</v>
+        <v>5.97</v>
       </c>
       <c r="D6" s="12">
-        <v>144106</v>
+        <v>22484.400000000001</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>1441060000</v>
-      </c>
-      <c r="F6" s="11">
-        <f>E6</f>
-        <v>1441060000</v>
+        <v>224844000</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>-410652000</v>
       </c>
       <c r="G6" s="14">
-        <v>1181206.42</v>
+        <v>86014.1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>860141000</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="2"/>
-        <v>0.12199899827838728</v>
+        <f t="shared" si="3"/>
+        <v>-0.47742405024292528</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2982316164519323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" thickBot="1">
+        <f t="shared" si="4"/>
+        <v>0.79205941716217165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="6">
         <v>42369</v>
       </c>
       <c r="B7" s="8">
-        <v>0.246</v>
+        <v>0.89</v>
       </c>
       <c r="C7" s="8">
-        <v>2.54</v>
+        <v>3.16</v>
       </c>
       <c r="D7" s="12">
-        <v>300269</v>
+        <v>63549.599999999999</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>3002690000</v>
+        <v>635496000</v>
       </c>
       <c r="F7" s="12">
-        <f>E7-E8</f>
-        <v>512890000</v>
+        <f t="shared" si="1"/>
+        <v>50765000</v>
       </c>
       <c r="G7" s="14">
-        <v>1181206.42</v>
+        <v>35935.86</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>359358600</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="2"/>
-        <v>4.3420861190375179E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.14126557705868178</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" si="3"/>
-        <v>0.25420535726515947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" thickBot="1">
+        <f t="shared" si="4"/>
+        <v>0.38830871393588462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="A8" s="6">
         <v>42277</v>
       </c>
       <c r="B8" s="8">
-        <v>0.20399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="C8" s="8">
-        <v>2.46</v>
+        <v>6.2</v>
       </c>
       <c r="D8" s="12">
-        <v>248980</v>
+        <v>58473.1</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>2489800000</v>
+        <v>584731000</v>
       </c>
       <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>167814000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>33498.839999999997</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>334988399.99999994</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.50095465992255261</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="4"/>
-        <v>887330000</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="2"/>
-        <v>7.5120655033351413E-2</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="3"/>
-        <v>0.43015089606438139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+        <v>1.7371207989796087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="A9" s="22">
         <v>42185</v>
       </c>
       <c r="B9" s="23">
-        <v>0.13150000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="C9" s="23">
-        <v>2.4300000000000002</v>
+        <v>5.95</v>
       </c>
       <c r="D9" s="24">
-        <v>160247</v>
+        <v>41691.699999999997</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>1602470000</v>
-      </c>
-      <c r="F9" s="24">
+        <v>416917000</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>211659000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>33743.25</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="2"/>
+        <v>337432500</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.62726323042386256</v>
+      </c>
+      <c r="J9" s="27">
         <f t="shared" si="4"/>
-        <v>681451000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1181206.42</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="2"/>
-        <v>5.7691101949818392E-2</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="3"/>
-        <v>0.35503024103102998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" thickBot="1">
+        <v>1.2361661390570564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="A10" s="6">
         <v>42094</v>
       </c>
       <c r="B10" s="8">
-        <v>7.5600000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="8">
-        <v>2.44</v>
+        <v>5.66</v>
       </c>
       <c r="D10" s="12">
-        <v>92101.9</v>
+        <v>20525.8</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>921019000</v>
-      </c>
-      <c r="F10" s="11">
-        <f>E10</f>
-        <v>921019000</v>
+        <v>205258000</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>-297337000</v>
       </c>
       <c r="G10" s="14">
-        <v>1181206.42</v>
+        <v>33743.25</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>337432500</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="2"/>
-        <v>7.7972739091614493E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <f t="shared" si="3"/>
+        <v>-0.88117475346921237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6">
         <v>42004</v>
       </c>
       <c r="B11" s="8">
-        <v>0.21299999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="C11" s="8">
-        <v>2.35</v>
+        <v>3.72</v>
       </c>
       <c r="D11" s="12">
-        <v>259117</v>
+        <v>50259.5</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>2591170000</v>
+        <v>502595000</v>
       </c>
       <c r="F11" s="12">
-        <f>E11-E12</f>
-        <v>2591170000</v>
+        <f t="shared" si="1"/>
+        <v>502595000</v>
       </c>
       <c r="G11" s="14">
-        <v>1181206.42</v>
+        <v>33729.449999999997</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>11812064200</v>
+        <f t="shared" si="2"/>
+        <v>337294500</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="2"/>
-        <v>0.21936639998959709</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22">
-        <v>11812064200</v>
+        <f t="shared" si="3"/>
+        <v>1.4900776621024061</v>
       </c>
     </row>
   </sheetData>
@@ -2942,10 +2899,477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A2" s="17">
+        <v>42825</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>3.08</v>
+      </c>
+      <c r="D2" s="11">
+        <v>83514</v>
+      </c>
+      <c r="E2" s="11">
+        <f>D2*10000</f>
+        <v>835140000</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2-E3</f>
+        <v>-2303120000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H2">
+        <f>G2*10000</f>
+        <v>11812064200</v>
+      </c>
+      <c r="I2" s="15">
+        <f>F2/H2</f>
+        <v>-0.19498031512561539</v>
+      </c>
+      <c r="J2" s="21">
+        <f>I2+I3+I4+I5</f>
+        <v>-5.1296707310480083E-2</v>
+      </c>
+      <c r="K2" s="16">
+        <f>I2*4</f>
+        <v>-0.77992126050246158</v>
+      </c>
+      <c r="L2">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="M2">
+        <f>L2/B2</f>
+        <v>699.59758551307857</v>
+      </c>
+      <c r="N2" s="16">
+        <f>L2/J2</f>
+        <v>-677.8212837239239</v>
+      </c>
+      <c r="O2" s="16">
+        <f>L2/K2</f>
+        <v>-44.581423485749767</v>
+      </c>
+      <c r="P2">
+        <f>L2/C2</f>
+        <v>11.288961038961039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A3" s="19">
+        <v>42735</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3.03</v>
+      </c>
+      <c r="D3" s="12">
+        <v>313826</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E11" si="0">D3*10000</f>
+        <v>3138260000</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F11" si="1">E3-E4</f>
+        <v>-265030000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">G3*10000</f>
+        <v>11812064200</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I11" si="3">F3/H3</f>
+        <v>-2.2437229895855122E-2</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" ref="J3:J9" si="4">I3+I4+I5+I6</f>
+        <v>1.1477248828363124E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A4" s="19">
+        <v>42643</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.27</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3.03</v>
+      </c>
+      <c r="D4" s="12">
+        <v>340329</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>3403290000</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>1729950000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="3"/>
+        <v>0.14645619687708775</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="4"/>
+        <v>7.7335339914593418E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A5" s="19">
+        <v>42551</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2.68</v>
+      </c>
+      <c r="D5" s="12">
+        <v>167334</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1673340000</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>232280000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="3"/>
+        <v>1.966464083390268E-2</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="4"/>
+        <v>5.9997980708570847E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A6" s="6">
+        <v>42460</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.1183</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="D6" s="12">
+        <v>144106</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1441060000</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>-1561630000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.13220635898677219</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="4"/>
+        <v>4.4026259186772797E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A7" s="6">
+        <v>42369</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.54</v>
+      </c>
+      <c r="D7" s="12">
+        <v>300269</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>3002690000</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>512890000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="3"/>
+        <v>4.3420861190375179E-2</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="4"/>
+        <v>3.483895727556241E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A8" s="6">
+        <v>42277</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.46</v>
+      </c>
+      <c r="D8" s="12">
+        <v>248980</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>2489800000</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>887330000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="3"/>
+        <v>7.5120655033351413E-2</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="4"/>
+        <v>0.21078449607478431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A9" s="22">
+        <v>42185</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D9" s="24">
+        <v>160247</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>1602470000</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>681451000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="3"/>
+        <v>5.7691101949818392E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="4"/>
+        <v>0.13566384104143289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A10" s="6">
+        <v>42094</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.44</v>
+      </c>
+      <c r="D10" s="12">
+        <v>92101.9</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>921019000</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>-1670151000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.14139366089798258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6">
+        <v>42004</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="D11" s="12">
+        <v>259117</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>2591170000</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>2591170000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1181206.42</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>11812064200</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21936639998959709</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22">
+        <v>11812064200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:P14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2955,10 +3379,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="2.25" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
@@ -3031,8 +3455,9 @@
         <f>D2</f>
         <v>210294626.66</v>
       </c>
-      <c r="F2" s="11">
-        <v>5878200.0000000009</v>
+      <c r="F2" s="12">
+        <f>E2-E3</f>
+        <v>-430628803.31000006</v>
       </c>
       <c r="G2" s="14">
         <v>136330.25</v>
@@ -3043,15 +3468,15 @@
       </c>
       <c r="I2" s="15">
         <f>F2/H2</f>
-        <v>4.3117356566132617E-3</v>
+        <v>-0.31587179170433566</v>
       </c>
       <c r="J2" s="21">
         <f>I2+I3+I4+I5</f>
-        <v>0.35669641815080172</v>
+        <v>3.6512890789852773E-2</v>
       </c>
       <c r="K2" s="16">
         <f>I2*4</f>
-        <v>1.7246942626453047E-2</v>
+        <v>-1.2634871668173426</v>
       </c>
       <c r="L2">
         <v>21.25</v>
@@ -3062,11 +3487,11 @@
       </c>
       <c r="N2" s="16">
         <f>L2/J2</f>
-        <v>59.57446982553121</v>
+        <v>581.98623938878995</v>
       </c>
       <c r="O2" s="16">
         <f>L2/K2</f>
-        <v>1232.1024346313495</v>
+        <v>-16.818532517055655</v>
       </c>
       <c r="P2">
         <f>L2/C2</f>
@@ -3091,23 +3516,23 @@
         <v>640923429.97000003</v>
       </c>
       <c r="F3" s="12">
-        <f>E3-E4</f>
+        <f t="shared" ref="F3:F13" si="1">E3-E4</f>
         <v>140453882.94000006</v>
       </c>
       <c r="G3" s="14">
         <v>136330.25</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">G3*10000</f>
+        <f t="shared" ref="H3:H13" si="2">G3*10000</f>
         <v>1363302500</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I13" si="2">F3/H3</f>
+        <f t="shared" ref="I3:I13" si="3">F3/H3</f>
         <v>0.10302473804603164</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
-        <v>0.47136348590703753</v>
+        <f t="shared" ref="J3:J9" si="4">I3+I4+I5+I6</f>
+        <v>0.10833717850774682</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" thickBot="1">
@@ -3128,23 +3553,23 @@
         <v>500469547.02999997</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F13" si="4">E4-E5</f>
+        <f t="shared" si="1"/>
         <v>185295993.02999997</v>
       </c>
       <c r="G4" s="14">
         <v>136009.32999999999</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1360093299.9999998</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13623770739110325</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="3"/>
-        <v>0.46012918975100536</v>
+        <f t="shared" si="4"/>
+        <v>9.7102882351714645E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" thickBot="1">
@@ -3165,23 +3590,23 @@
         <v>315173554</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>153610416.47</v>
       </c>
       <c r="G5" s="14">
         <v>135791.53</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1357915300</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11312223705705356</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" si="3"/>
-        <v>0.43575664416100768</v>
+        <f t="shared" si="4"/>
+        <v>7.2730336761716932E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" thickBot="1">
@@ -3201,24 +3626,24 @@
         <f t="shared" si="0"/>
         <v>161563137.53</v>
       </c>
-      <c r="F6" s="11">
-        <f>E6</f>
-        <v>161563137.53</v>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>-331395839.59000003</v>
       </c>
       <c r="G6" s="14">
         <v>135791.53</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1357915300</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="2"/>
-        <v>0.1189788034128491</v>
+        <f t="shared" si="3"/>
+        <v>-0.24404750398644159</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="3"/>
-        <v>0.44732176344486424</v>
+        <f t="shared" si="4"/>
+        <v>8.4295456045573564E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" thickBot="1">
@@ -3239,22 +3664,22 @@
         <v>492958977.12</v>
       </c>
       <c r="F7" s="12">
-        <f>E7-E8</f>
+        <f t="shared" si="1"/>
         <v>103869706.06</v>
       </c>
       <c r="G7" s="14">
         <v>113159.61</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1131596100</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.179044188999945E-2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17432387522774265</v>
       </c>
     </row>
@@ -3276,22 +3701,22 @@
         <v>389089271.06</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>126586180.81999999</v>
       </c>
       <c r="G8" s="14">
         <v>113159.61</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1131596100</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11186516180110553</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14153419393663025</v>
       </c>
     </row>
@@ -3312,23 +3737,23 @@
         <f t="shared" si="0"/>
         <v>262503090.24000001</v>
       </c>
-      <c r="F9" s="24">
-        <f t="shared" si="4"/>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
         <v>140530206.65000001</v>
       </c>
       <c r="G9" s="14">
         <v>112706.06</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1127060600</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12468735634091016</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.819620212031395E-2</v>
       </c>
     </row>
@@ -3349,19 +3774,19 @@
         <f t="shared" si="0"/>
         <v>121972883.59</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="4"/>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
         <v>-157808031.29999998</v>
       </c>
       <c r="G10" s="10">
         <v>102460.05</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024600500</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15401908480427248</v>
       </c>
     </row>
@@ -3382,19 +3807,19 @@
         <f t="shared" si="0"/>
         <v>279780914.88999999</v>
       </c>
-      <c r="F11" s="24">
-        <f t="shared" si="4"/>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
         <v>60452208.809999973</v>
       </c>
       <c r="G11" s="10">
         <v>102460.05</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024600500</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.900076059888705E-2</v>
       </c>
     </row>
@@ -3415,19 +3840,19 @@
         <f t="shared" si="0"/>
         <v>219328706.08000001</v>
       </c>
-      <c r="F12" s="24">
-        <f t="shared" si="4"/>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
         <v>70212972.630000025</v>
       </c>
       <c r="G12" s="10">
         <v>102460.05</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024600500</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8527169984789221E-2</v>
       </c>
     </row>
@@ -3448,19 +3873,19 @@
         <f t="shared" si="0"/>
         <v>149115733.44999999</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="4"/>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
         <v>149115733.44999999</v>
       </c>
       <c r="G13" s="14">
         <v>102460.05</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024600500</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14553548768520022</v>
       </c>
     </row>
@@ -3634,12 +4059,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3649,8 +4074,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="3.875" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="3.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
@@ -3784,23 +4209,23 @@
         <v>1295610000</v>
       </c>
       <c r="F3" s="12">
-        <f>E3-E4</f>
+        <f t="shared" ref="F3:F13" si="1">E3-E4</f>
         <v>778526000</v>
       </c>
       <c r="G3" s="14">
         <v>141975.81</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">G3*10000</f>
+        <f t="shared" ref="H3:H13" si="2">G3*10000</f>
         <v>1419758100</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I13" si="2">F3/H3</f>
+        <f t="shared" ref="I3:I13" si="3">F3/H3</f>
         <v>0.54835115925734113</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J9" si="3">I3+I4+I5+I6</f>
-        <v>1.2242304014567316</v>
+        <f t="shared" ref="J3:J9" si="4">I3+I4+I5+I6</f>
+        <v>0.12414812833555411</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" thickBot="1">
@@ -3821,14 +4246,14 @@
         <v>517084000</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F13" si="4">E4-E5</f>
+        <f t="shared" si="1"/>
         <v>219830000</v>
       </c>
       <c r="G4" s="14">
         <v>141608.9</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1416089000</v>
       </c>
       <c r="I4" s="15">
@@ -3836,8 +4261,8 @@
         <v>0.1552374179871463</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="3"/>
-        <v>1.2841575895398265</v>
+        <f t="shared" si="4"/>
+        <v>0.18407531641864894</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" thickBot="1">
@@ -3858,23 +4283,23 @@
         <v>297254000</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>363939000</v>
       </c>
       <c r="G5" s="14">
         <v>56643.56</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>566435600</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64250728591211426</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" si="3"/>
-        <v>1.3184277150069805</v>
+        <f t="shared" si="4"/>
+        <v>0.21834544188580307</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" thickBot="1">
@@ -3894,24 +4319,24 @@
         <f t="shared" si="0"/>
         <v>-66685000</v>
       </c>
-      <c r="F6" s="11">
-        <f>E6</f>
-        <v>-66685000</v>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>-668652000</v>
       </c>
       <c r="G6" s="14">
         <v>54720.18</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>547201800</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="2"/>
-        <v>-0.12186546169987014</v>
+        <f t="shared" si="3"/>
+        <v>-1.2219477348210477</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="3"/>
-        <v>1.1022571757562092</v>
+        <f t="shared" si="4"/>
+        <v>2.1749026350316725E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" thickBot="1">
@@ -3932,22 +4357,22 @@
         <v>601967000</v>
       </c>
       <c r="F7" s="12">
-        <f>E7-E8</f>
+        <f t="shared" si="1"/>
         <v>339515000</v>
       </c>
       <c r="G7" s="14">
         <v>55815.73</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>558157300</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60827834734043607</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9544783861573274E-2</v>
       </c>
     </row>
@@ -3969,22 +4394,22 @@
         <v>262452000</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>105175000</v>
       </c>
       <c r="G8" s="14">
         <v>55499.11</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>554991100</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18950754345430043</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.27290783296130189</v>
       </c>
     </row>
@@ -4005,23 +4430,23 @@
         <f t="shared" si="0"/>
         <v>157277000</v>
       </c>
-      <c r="F9" s="24">
-        <f t="shared" si="4"/>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
         <v>236613100</v>
       </c>
       <c r="G9" s="14">
         <v>55499.11</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>554991100</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42633674666134286</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.34058732161319005</v>
       </c>
     </row>
@@ -4042,19 +4467,19 @@
         <f t="shared" si="0"/>
         <v>-79336100</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="4"/>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
         <v>-727116100</v>
       </c>
       <c r="G10" s="14">
         <v>55350.09</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>553500900</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3136674213176527</v>
       </c>
     </row>
@@ -4075,19 +4500,19 @@
         <f t="shared" si="0"/>
         <v>647780000</v>
       </c>
-      <c r="F11" s="24">
-        <f t="shared" si="4"/>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
         <v>235191000</v>
       </c>
       <c r="G11" s="14">
         <v>55350.09</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>553500900</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42491529824070745</v>
       </c>
     </row>
@@ -4108,19 +4533,19 @@
         <f t="shared" si="0"/>
         <v>412589000</v>
       </c>
-      <c r="F12" s="24">
-        <f t="shared" si="4"/>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
         <v>55151000</v>
       </c>
       <c r="G12" s="14">
         <v>45269.54</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>452695400</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12182805480241239</v>
       </c>
     </row>
@@ -4141,19 +4566,19 @@
         <f t="shared" si="0"/>
         <v>357438000</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="4"/>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
         <v>357438000</v>
       </c>
       <c r="G13" s="14">
         <v>45269.54</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>452695400</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78957727425549273</v>
       </c>
     </row>
